--- a/papers/Apaperinfo_from2021.xlsx
+++ b/papers/Apaperinfo_from2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fantastic-lin/Documents/Andrew/Lab_website/aet21.github.io-master/papers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A251974-DC1A-AC49-B815-EA2836BBFD67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A2A5B1-EA5F-9A4F-ADD5-7B52BC9B6B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33760" yWindow="680" windowWidth="34880" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="680" windowWidth="27040" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="167">
   <si>
     <t>Title</t>
   </si>
@@ -37,15 +37,24 @@
     <t>Date</t>
   </si>
   <si>
+    <t>Contribution</t>
+  </si>
+  <si>
     <t>Immune cell-associated DNA methylation responses to exercise in women: A bioinformatics analysis comparing pre- and postmenopausal stages</t>
   </si>
   <si>
+    <t>Guilherme da Silva Rodrigues, Natalia Yumi Noronha, Andressa Crystine da Silva Sobrinho, Bernadette Jones-Freeman, Robin Grolaux, Camila Fernanda Cunha Brandao, Julio Sergio Marchini, Lígia Moriguchi Watanabe, Carla Barbosa Nonino, Andrew Teschendorff, Nir Eynon, Carlos Roberto Bueno Júnior, Macsue Jacques</t>
+  </si>
+  <si>
     <t>Experimental Gerontology</t>
   </si>
   <si>
     <t>https://doi.org/10.1016/j.exger.2025.112996</t>
   </si>
   <si>
+    <t>Co-author</t>
+  </si>
+  <si>
     <t>Variations in Innate Immune Cell Subtypes Correlate with Epigenetic Clocks, Inflammaging and Health Outcomes</t>
   </si>
   <si>
@@ -58,6 +67,9 @@
     <t>https://doi.org/10.1002/advs.202505922</t>
   </si>
   <si>
+    <t>Joint Corresponding Author</t>
+  </si>
+  <si>
     <t>An improved reference library and method for accurate cell-type deconvolution of bulk-tissue miRNA data</t>
   </si>
   <si>
@@ -106,6 +118,9 @@
     <t>https://doi.org/10.1101/2025.01.21.634004</t>
   </si>
   <si>
+    <t>Corresponding Author</t>
+  </si>
+  <si>
     <t>FastQTLmapping: an ultra-fast package for mQTL-like analysis</t>
   </si>
   <si>
@@ -161,6 +176,9 @@
   </si>
   <si>
     <t>https://doi.org/10.1038/s41576-024-00807-w</t>
+  </si>
+  <si>
+    <t>Main and Corresponding Author</t>
   </si>
   <si>
     <t>Cell-type specific epigenetic clocks to quantify biological age at cell-type resolution</t>
@@ -293,6 +311,9 @@
     <t>FORGEdb: a tool for identifying candidate functional variants and uncovering target genes and mechanisms for complex diseases</t>
   </si>
   <si>
+    <t>Charles E. Breeze, Eric Haugen, María Gutierrez-Arcelus, Xiaozheng Yao, Andrew Teschendorff, Stephan Beck, Ian Dunham, John Stamatoyannopoulos, Nora Franceschini, Mitchell J. Machiela, Sonja I. Berndt</t>
+  </si>
+  <si>
     <t>https://doi.org/10.1101/2022.11.14.516365</t>
   </si>
   <si>
@@ -449,6 +470,9 @@
     <t>CNCB-NGDC Members and Partners</t>
   </si>
   <si>
+    <t>Nucleic Acids Research</t>
+  </si>
+  <si>
     <t>https://academic.oup.com/nar/article/50/D1/D27/6413834?login=false</t>
   </si>
   <si>
@@ -497,13 +521,7 @@
     <t>https://doi.org/10.1038/s41576-021-00341-z</t>
   </si>
   <si>
-    <t>Nucleic Acids Research</t>
-  </si>
-  <si>
-    <t>Guilherme da Silva Rodrigues, Natalia Yumi Noronha, Andressa Crystine da Silva Sobrinho, Bernadette Jones-Freeman, Robin Grolaux, Camila Fernanda Cunha Brandao, Julio Sergio Marchini, Lígia Moriguchi Watanabe, Carla Barbosa Nonino, Andrew Teschendorff, Nir Eynon, Carlos Roberto Bueno Júnior, Macsue Jacques</t>
-  </si>
-  <si>
-    <t>Charles E. Breeze, Eric Haugen, María Gutierrez-Arcelus, Xiaozheng Yao, Andrew Teschendorff, Stephan Beck, Ian Dunham, John Stamatoyannopoulos, Nora Franceschini, Mitchell J. Machiela, Sonja I. Berndt</t>
+    <t>Is_corresponding</t>
   </si>
 </sst>
 </file>
@@ -511,9 +529,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$]yyyy/m/d;@" x16r2:formatCode16="[$-en-CN,1]yyyy/m/d;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,14 +542,8 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -569,21 +581,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -886,21 +889,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="141.83203125" customWidth="1"/>
-    <col min="3" max="3" width="40.83203125" customWidth="1"/>
-    <col min="4" max="4" width="68.1640625" customWidth="1"/>
-    <col min="5" max="5" width="81.1640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="62.33203125" customWidth="1"/>
+    <col min="7" max="7" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -913,726 +914,983 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="G1" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2">
+        <v>46054</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45896</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45839</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45488</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45695</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45681</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="2">
+        <v>44519</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45629</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45726</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45699</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45670</v>
+      </c>
+      <c r="F12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45618</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45546</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45541</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45453</v>
+      </c>
+      <c r="F16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45321</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45439</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45415</v>
+      </c>
+      <c r="F19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45421</v>
+      </c>
+      <c r="F20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45454</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45355</v>
+      </c>
+      <c r="F22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45341</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45049</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45008</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45081</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45726</v>
+      </c>
+      <c r="F27" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28" s="2">
+        <v>44718</v>
+      </c>
+      <c r="F28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="2">
+        <v>44897</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30" s="2">
+        <v>44673</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" s="2">
+        <v>44706</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" s="2">
+        <v>44760</v>
+      </c>
+      <c r="F32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" s="2">
+        <v>44683</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" t="s">
+        <v>133</v>
+      </c>
+      <c r="E34" s="2">
+        <v>44631</v>
+      </c>
+      <c r="F34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" t="s">
+        <v>136</v>
+      </c>
+      <c r="E35" s="2">
+        <v>44620</v>
+      </c>
+      <c r="F35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" t="s">
+        <v>139</v>
+      </c>
+      <c r="E36" s="2">
+        <v>44606</v>
+      </c>
+      <c r="F36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" t="s">
+        <v>142</v>
+      </c>
+      <c r="E37" s="2">
+        <v>44568</v>
+      </c>
+      <c r="F37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>143</v>
+      </c>
+      <c r="B38" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" t="s">
+        <v>145</v>
+      </c>
+      <c r="D38" t="s">
+        <v>146</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44593</v>
+      </c>
+      <c r="F38" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" t="s">
+        <v>148</v>
+      </c>
+      <c r="C39" t="s">
+        <v>149</v>
+      </c>
+      <c r="D39" t="s">
+        <v>150</v>
+      </c>
+      <c r="E39" s="2">
+        <v>44568</v>
+      </c>
+      <c r="F39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>151</v>
+      </c>
+      <c r="B40" t="s">
+        <v>152</v>
+      </c>
+      <c r="C40" t="s">
+        <v>153</v>
+      </c>
+      <c r="D40" t="s">
+        <v>154</v>
+      </c>
+      <c r="E40" s="2">
+        <v>44390</v>
+      </c>
+      <c r="F40" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41" t="s">
+        <v>156</v>
+      </c>
+      <c r="C41" t="s">
+        <v>157</v>
+      </c>
+      <c r="D41" t="s">
+        <v>158</v>
+      </c>
+      <c r="E41" s="2">
+        <v>44358</v>
+      </c>
+      <c r="F41" t="s">
+        <v>52</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4">
-        <v>46054</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B42" t="s">
+        <v>160</v>
+      </c>
+      <c r="C42" t="s">
+        <v>161</v>
+      </c>
+      <c r="D42" t="s">
+        <v>162</v>
+      </c>
+      <c r="E42" s="2">
+        <v>44348</v>
+      </c>
+      <c r="F42" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4">
-        <v>45896</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="4">
-        <v>45839</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="4">
-        <v>45488</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="4">
-        <v>45695</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="4">
-        <v>45681</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="4">
-        <v>44519</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="4">
-        <v>45629</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="4">
-        <v>45726</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="4">
-        <v>45699</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="4">
-        <v>45670</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>163</v>
+      </c>
+      <c r="B43" t="s">
+        <v>164</v>
+      </c>
+      <c r="C43" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="4">
-        <v>45618</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="D43" t="s">
+        <v>165</v>
+      </c>
+      <c r="E43" s="2">
+        <v>44305</v>
+      </c>
+      <c r="F43" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="4">
-        <v>45546</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="4">
-        <v>45541</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="4">
-        <v>45453</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="4">
-        <v>45321</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="4">
-        <v>45439</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="4">
-        <v>45415</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="4">
-        <v>45421</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="4">
-        <v>45454</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="4">
-        <v>45355</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E23" s="4">
-        <v>45341</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E24" s="4">
-        <v>45049</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25" s="4">
-        <v>45008</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E26" s="4">
-        <v>45081</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E27" s="4">
-        <v>45726</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" s="4">
-        <v>44718</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E29" s="4">
-        <v>44897</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E30" s="4">
-        <v>44673</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E31" s="4">
-        <v>44706</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E32" s="4">
-        <v>44760</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E33" s="4">
-        <v>44683</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E34" s="4">
-        <v>44631</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E35" s="4">
-        <v>44620</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E36" s="4">
-        <v>44606</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E37" s="4">
-        <v>44568</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E38" s="4">
-        <v>44593</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E39" s="4">
-        <v>44568</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E40" s="4">
-        <v>44390</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E41" s="4">
-        <v>44358</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E42" s="4">
-        <v>44348</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E43" s="4">
-        <v>44305</v>
+      <c r="G43" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>